--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed3/result_data_RandomForest.xlsx
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.210799999999999</v>
+        <v>5.293599999999998</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.37360000000001</v>
+        <v>-22.36890000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.63899999999998</v>
+        <v>-21.64289999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.64349999999999</v>
+        <v>-21.6016</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.769200000000001</v>
+        <v>5.864600000000003</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.667799999999994</v>
+        <v>4.748699999999992</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,10 +734,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.85190000000002</v>
+        <v>-21.83370000000002</v>
       </c>
       <c r="B18" t="n">
-        <v>6.204599999999997</v>
+        <v>6.248099999999998</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.862499999999994</v>
+        <v>8.642700000000003</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.60159999999999</v>
+        <v>-21.57249999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.027800000000004</v>
+        <v>5.042400000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.434199999999999</v>
+        <v>5.086000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.297200000000001</v>
+        <v>5.217400000000005</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.538500000000003</v>
+        <v>8.460300000000005</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.0284</v>
+        <v>-18.9653</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.246799999999995</v>
+        <v>9.142399999999995</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.0504</v>
+        <v>5.012800000000004</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.421800000000001</v>
+        <v>4.620899999999998</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.391099999999999</v>
+        <v>4.506099999999997</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.9518</v>
+        <v>-22.0843</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.5057</v>
+        <v>-21.47430000000002</v>
       </c>
       <c r="B68" t="n">
-        <v>4.4498</v>
+        <v>4.452499999999999</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.865799999999998</v>
+        <v>5.952199999999997</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.06689999999998</v>
+        <v>-20.11049999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.94489999999997</v>
+        <v>-20.07179999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-19.93569999999999</v>
+        <v>-19.95489999999999</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.76219999999999</v>
+        <v>-19.67249999999999</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.8663</v>
+        <v>-21.70590000000001</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.86320000000001</v>
+        <v>-21.8491</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.1314</v>
+        <v>-22.0673</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.390299999999995</v>
+        <v>4.738899999999994</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.427799999999998</v>
+        <v>4.512299999999997</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.710599999999997</v>
+        <v>4.622799999999997</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.093600000000006</v>
+        <v>5.002300000000008</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>6.231399999999999</v>
+        <v>6.478499999999999</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.58079999999998</v>
+        <v>-21.66699999999999</v>
       </c>
       <c r="B101" t="n">
-        <v>5.812300000000001</v>
+        <v>5.550900000000002</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.77729999999998</v>
+        <v>-21.72919999999997</v>
       </c>
       <c r="B102" t="n">
-        <v>5.768300000000004</v>
+        <v>5.434600000000005</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
